--- a/hardware/bu9796_RAM_format.xlsx
+++ b/hardware/bu9796_RAM_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikek\Documents\PCB\fluke-87v-clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19DDA9A-ED72-40D8-A317-BB4EBE0D0094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB17CB7-944B-4815-BBDC-C16E98AD6957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{59C26FB5-2364-41C7-A76A-58743931A50B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{59C26FB5-2364-41C7-A76A-58743931A50B}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="118">
   <si>
     <t>SEG1</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>MAN</t>
+  </si>
+  <si>
+    <t>RMS</t>
   </si>
 </sst>
 </file>
@@ -469,20 +472,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,7 +793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -800,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEC80EB-156E-469C-8719-5FF12BD3A1A4}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,16 +814,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -852,7 +855,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -881,182 +884,177 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
@@ -1073,6 +1071,11 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1083,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFBD248-16B2-4C1E-AF2D-9A5AEE7EDBC9}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,16 +1098,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1136,7 +1139,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1163,12 +1166,12 @@
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1200,7 +1203,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1232,7 +1235,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1264,7 +1267,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1296,7 +1299,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1308,7 +1311,9 @@
       <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>73</v>
       </c>
@@ -1326,7 +1331,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1358,7 +1363,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1390,7 +1395,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1422,7 +1427,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1454,7 +1459,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1510,16 +1515,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1551,7 +1556,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1578,12 +1583,12 @@
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>0</v>
       </c>
       <c r="B4" s="1"/>
@@ -1599,7 +1604,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
@@ -1615,7 +1620,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="1"/>
@@ -1631,7 +1636,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" s="1"/>
@@ -1647,7 +1652,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" s="1"/>
@@ -1663,7 +1668,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="1"/>
@@ -1679,7 +1684,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
       <c r="B10" s="1"/>
@@ -1695,7 +1700,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
       <c r="B11" s="1"/>
@@ -1711,7 +1716,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
       <c r="B12" s="1"/>
@@ -1727,7 +1732,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="1"/>
